--- a/QualityControl/parameters.xlsx
+++ b/QualityControl/parameters.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usama riasat\Documents\Saffron-Clones\Saffron-Restful-APIs\SaffronProject\QualityControl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usama riasat\Documents\Saffron-Clones\saff-apis\QualityControl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B7B9DC-34DE-4FE9-8FBC-5ED3346D7DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0176BD-6529-498D-A594-F8B4906CD63E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="RMSpecs" sheetId="2" r:id="rId2"/>
-    <sheet name="RMSpecsItems" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
+    <sheet name="RMSpecs" sheetId="2" r:id="rId3"/>
+    <sheet name="RMSpecsItems" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">RMSpecs!$A$1:$D$188</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">RMSpecs!$A$1:$D$188</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4886" uniqueCount="1357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4930" uniqueCount="1398">
   <si>
     <t>BP</t>
   </si>
@@ -4202,6 +4203,129 @@
   </si>
   <si>
     <t>4.0% - 6.7%</t>
+  </si>
+  <si>
+    <t>Body Length</t>
+  </si>
+  <si>
+    <t>Cap Length</t>
+  </si>
+  <si>
+    <t>Color Variation</t>
+  </si>
+  <si>
+    <t>Composition</t>
+  </si>
+  <si>
+    <t>Grammage</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>Inner Diamater</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Machine Testing</t>
+  </si>
+  <si>
+    <t>Mfg Lic. No.</t>
+  </si>
+  <si>
+    <t>Misprinting</t>
+  </si>
+  <si>
+    <t>Mouth Diamater</t>
+  </si>
+  <si>
+    <t>Outer Diameter</t>
+  </si>
+  <si>
+    <t>Pasting</t>
+  </si>
+  <si>
+    <t>Pilfer Quality</t>
+  </si>
+  <si>
+    <t>Ply</t>
+  </si>
+  <si>
+    <t>Registration No.</t>
+  </si>
+  <si>
+    <t>Tape Test</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Thickness</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Width</t>
+  </si>
+  <si>
+    <t>Sticking/Pasting</t>
+  </si>
+  <si>
+    <t>Product Specs</t>
+  </si>
+  <si>
+    <t>Outer Diameter collar</t>
+  </si>
+  <si>
+    <t>Diameter outer collar</t>
+  </si>
+  <si>
+    <t>Diameter inner collar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diameter </t>
+  </si>
+  <si>
+    <t>Measuring Volume</t>
+  </si>
+  <si>
+    <t>Measuring spots</t>
+  </si>
+  <si>
+    <t>Outer Diameter of Body</t>
+  </si>
+  <si>
+    <t>Mouth inner Diameter</t>
+  </si>
+  <si>
+    <t>Mouth Outer Diameter</t>
+  </si>
+  <si>
+    <t>Height Screwed Portion</t>
+  </si>
+  <si>
+    <t>Height Collar</t>
+  </si>
+  <si>
+    <t>Occupied Volume</t>
+  </si>
+  <si>
+    <t>Sealing</t>
+  </si>
+  <si>
+    <t>Plifer Quality</t>
+  </si>
+  <si>
+    <t>Packing</t>
+  </si>
+  <si>
+    <t>GTIN No.</t>
   </si>
 </sst>
 </file>
@@ -4331,7 +4455,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4379,6 +4503,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4662,7 +4789,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A79" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -5084,10 +5211,248 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4727FC27-3891-43C3-B859-BB9A65C97C33}">
+  <dimension ref="A1:A44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="24" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="24" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7164B84E-807A-478E-9EFB-A01C5AB6EB46}">
   <dimension ref="A1:D181"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -7636,7 +8001,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20AA50B5-C189-4AC0-979B-566F5600D10D}">
   <dimension ref="A1:D1111"/>
   <sheetViews>
@@ -7750,7 +8115,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="270" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>268</v>
       </c>
@@ -7764,7 +8129,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>268</v>
       </c>
@@ -7792,7 +8157,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>268</v>
       </c>
@@ -7806,7 +8171,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>269</v>
       </c>
@@ -7820,7 +8185,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>269</v>
       </c>
@@ -7834,7 +8199,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="300" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>269</v>
       </c>
@@ -7848,7 +8213,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>269</v>
       </c>
@@ -7876,7 +8241,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="285" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>269</v>
       </c>
@@ -7890,7 +8255,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>269</v>
       </c>
@@ -7904,7 +8269,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>270</v>
       </c>
@@ -7918,7 +8283,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>270</v>
       </c>
@@ -7932,7 +8297,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="165" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>270</v>
       </c>
@@ -7946,7 +8311,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>270</v>
       </c>
@@ -7960,7 +8325,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>270</v>
       </c>
@@ -7974,7 +8339,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>270</v>
       </c>
@@ -8002,7 +8367,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>270</v>
       </c>
@@ -8072,7 +8437,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>272</v>
       </c>
@@ -8086,7 +8451,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>272</v>
       </c>
@@ -8100,7 +8465,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>272</v>
       </c>
@@ -8114,7 +8479,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>272</v>
       </c>
@@ -8142,7 +8507,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>272</v>
       </c>
@@ -8156,7 +8521,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>272</v>
       </c>
@@ -8170,7 +8535,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>273</v>
       </c>
@@ -8184,7 +8549,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>273</v>
       </c>
@@ -8198,7 +8563,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="390" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>273</v>
       </c>
@@ -8226,7 +8591,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>273</v>
       </c>
@@ -8240,7 +8605,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>273</v>
       </c>
@@ -8254,7 +8619,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>273</v>
       </c>
@@ -8268,7 +8633,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>274</v>
       </c>
@@ -8282,7 +8647,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="270" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>274</v>
       </c>
@@ -8296,7 +8661,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>274</v>
       </c>
@@ -8310,7 +8675,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>274</v>
       </c>
@@ -8338,7 +8703,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>275</v>
       </c>
@@ -8352,7 +8717,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>275</v>
       </c>
@@ -8366,7 +8731,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>275</v>
       </c>
@@ -8380,7 +8745,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>275</v>
       </c>
@@ -8394,7 +8759,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>275</v>
       </c>
@@ -8408,7 +8773,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>275</v>
       </c>
@@ -8422,7 +8787,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>276</v>
       </c>
@@ -8436,7 +8801,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>276</v>
       </c>
@@ -8450,7 +8815,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>276</v>
       </c>
@@ -8464,7 +8829,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>276</v>
       </c>
@@ -8478,7 +8843,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>276</v>
       </c>
@@ -8492,7 +8857,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>276</v>
       </c>
@@ -8506,7 +8871,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>277</v>
       </c>
@@ -8520,7 +8885,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="390" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>277</v>
       </c>
@@ -8534,7 +8899,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>277</v>
       </c>
@@ -8548,7 +8913,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>277</v>
       </c>
@@ -8562,7 +8927,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>277</v>
       </c>
@@ -8576,7 +8941,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>277</v>
       </c>
@@ -8590,7 +8955,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>278</v>
       </c>
@@ -8604,7 +8969,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="285" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>278</v>
       </c>
@@ -8618,7 +8983,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>278</v>
       </c>
@@ -8632,7 +8997,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>278</v>
       </c>
@@ -8646,7 +9011,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>278</v>
       </c>
@@ -8660,7 +9025,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>278</v>
       </c>
@@ -8674,7 +9039,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>278</v>
       </c>
@@ -8688,7 +9053,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>279</v>
       </c>
@@ -8702,7 +9067,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>279</v>
       </c>
@@ -8716,7 +9081,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>279</v>
       </c>
@@ -8744,7 +9109,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>279</v>
       </c>
@@ -8758,7 +9123,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>279</v>
       </c>
@@ -8772,7 +9137,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>280</v>
       </c>
@@ -8786,7 +9151,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="285" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>280</v>
       </c>
@@ -8800,7 +9165,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>280</v>
       </c>
@@ -8814,7 +9179,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>280</v>
       </c>
@@ -8828,7 +9193,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>280</v>
       </c>
@@ -8842,7 +9207,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>280</v>
       </c>
@@ -8856,7 +9221,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>280</v>
       </c>
@@ -8870,7 +9235,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>280</v>
       </c>
@@ -8884,7 +9249,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>281</v>
       </c>
@@ -8898,7 +9263,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>281</v>
       </c>
@@ -8926,7 +9291,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>281</v>
       </c>
@@ -8940,7 +9305,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>281</v>
       </c>
@@ -8954,7 +9319,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>281</v>
       </c>
@@ -8968,7 +9333,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>282</v>
       </c>
@@ -8982,7 +9347,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>282</v>
       </c>
@@ -9010,7 +9375,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>282</v>
       </c>
@@ -9024,7 +9389,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>282</v>
       </c>
@@ -9038,7 +9403,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>282</v>
       </c>
@@ -9052,7 +9417,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>282</v>
       </c>
@@ -9066,7 +9431,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="270" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>282</v>
       </c>
@@ -9080,7 +9445,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>283</v>
       </c>
@@ -9094,7 +9459,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
         <v>283</v>
       </c>
@@ -9108,7 +9473,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
         <v>283</v>
       </c>
@@ -9122,7 +9487,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
         <v>283</v>
       </c>
@@ -9136,7 +9501,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>283</v>
       </c>
@@ -9150,7 +9515,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>283</v>
       </c>
@@ -9164,7 +9529,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>283</v>
       </c>
@@ -9178,7 +9543,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>284</v>
       </c>
@@ -9192,7 +9557,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>284</v>
       </c>
@@ -9206,7 +9571,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
         <v>284</v>
       </c>
@@ -9220,7 +9585,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
         <v>284</v>
       </c>
@@ -9234,7 +9599,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
         <v>284</v>
       </c>
@@ -9248,7 +9613,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>284</v>
       </c>
@@ -9262,7 +9627,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>285</v>
       </c>
@@ -9276,7 +9641,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>285</v>
       </c>
@@ -9290,7 +9655,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>285</v>
       </c>
@@ -9304,7 +9669,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
         <v>285</v>
       </c>
@@ -9318,7 +9683,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
         <v>285</v>
       </c>
@@ -9332,7 +9697,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
         <v>286</v>
       </c>
@@ -9346,7 +9711,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
         <v>286</v>
       </c>
@@ -9360,7 +9725,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>286</v>
       </c>
@@ -9374,7 +9739,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>286</v>
       </c>
@@ -9388,7 +9753,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
         <v>286</v>
       </c>
@@ -9402,7 +9767,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
         <v>287</v>
       </c>
@@ -9416,7 +9781,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
         <v>287</v>
       </c>
@@ -9458,7 +9823,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
         <v>288</v>
       </c>
@@ -9472,7 +9837,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>288</v>
       </c>
@@ -9500,7 +9865,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
         <v>289</v>
       </c>
@@ -9514,7 +9879,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="345" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
         <v>289</v>
       </c>
@@ -9528,7 +9893,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" ht="180" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
         <v>289</v>
       </c>
@@ -9542,7 +9907,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
         <v>289</v>
       </c>
@@ -9556,7 +9921,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
         <v>289</v>
       </c>
@@ -9570,7 +9935,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
         <v>289</v>
       </c>
@@ -9584,7 +9949,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
         <v>289</v>
       </c>
@@ -9598,7 +9963,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
         <v>289</v>
       </c>
@@ -9612,7 +9977,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
         <v>290</v>
       </c>
@@ -9626,7 +9991,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="285" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
         <v>290</v>
       </c>
@@ -9640,7 +10005,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="360" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
         <v>290</v>
       </c>
@@ -9654,7 +10019,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
         <v>290</v>
       </c>
@@ -9668,7 +10033,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
         <v>290</v>
       </c>
@@ -9682,7 +10047,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
         <v>291</v>
       </c>
@@ -9696,7 +10061,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
         <v>291</v>
       </c>
@@ -9710,7 +10075,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
         <v>291</v>
       </c>
@@ -9724,7 +10089,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
         <v>291</v>
       </c>
@@ -9738,7 +10103,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
         <v>291</v>
       </c>
@@ -9752,7 +10117,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
         <v>291</v>
       </c>
@@ -9766,7 +10131,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
         <v>292</v>
       </c>
@@ -9780,7 +10145,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
         <v>292</v>
       </c>
@@ -9794,7 +10159,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
         <v>292</v>
       </c>
@@ -9808,7 +10173,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
         <v>292</v>
       </c>
@@ -9822,7 +10187,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
         <v>293</v>
       </c>
@@ -9836,7 +10201,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
         <v>293</v>
       </c>
@@ -9850,7 +10215,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="270" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
         <v>293</v>
       </c>
@@ -9864,7 +10229,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
         <v>293</v>
       </c>
@@ -9878,7 +10243,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
         <v>293</v>
       </c>
@@ -9892,7 +10257,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
         <v>293</v>
       </c>
@@ -9906,7 +10271,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
         <v>293</v>
       </c>
@@ -9920,7 +10285,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
         <v>294</v>
       </c>
@@ -9934,7 +10299,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
         <v>294</v>
       </c>
@@ -9948,7 +10313,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="300" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
         <v>294</v>
       </c>
@@ -9962,7 +10327,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
         <v>294</v>
       </c>
@@ -9990,7 +10355,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
         <v>294</v>
       </c>
@@ -10004,7 +10369,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
         <v>295</v>
       </c>
@@ -10018,7 +10383,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
         <v>295</v>
       </c>
@@ -10032,7 +10397,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
         <v>295</v>
       </c>
@@ -10046,7 +10411,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
         <v>295</v>
       </c>
@@ -10060,7 +10425,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
         <v>295</v>
       </c>
@@ -10074,7 +10439,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
         <v>295</v>
       </c>
@@ -10088,7 +10453,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
         <v>295</v>
       </c>
@@ -10102,7 +10467,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
         <v>295</v>
       </c>
@@ -10116,7 +10481,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
         <v>295</v>
       </c>
@@ -10130,7 +10495,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
         <v>296</v>
       </c>
@@ -10144,7 +10509,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
         <v>296</v>
       </c>
@@ -10158,7 +10523,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
         <v>296</v>
       </c>
@@ -10172,7 +10537,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
         <v>296</v>
       </c>
@@ -10186,7 +10551,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
         <v>296</v>
       </c>
@@ -10200,7 +10565,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
         <v>296</v>
       </c>
@@ -10214,7 +10579,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="5" t="s">
         <v>296</v>
       </c>
@@ -10228,7 +10593,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
         <v>297</v>
       </c>
@@ -10242,7 +10607,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="330" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
         <v>297</v>
       </c>
@@ -10256,7 +10621,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
         <v>297</v>
       </c>
@@ -10270,7 +10635,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
         <v>297</v>
       </c>
@@ -10284,7 +10649,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
         <v>297</v>
       </c>
@@ -10298,7 +10663,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
         <v>297</v>
       </c>
@@ -10312,7 +10677,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
         <v>298</v>
       </c>
@@ -10326,7 +10691,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
         <v>298</v>
       </c>
@@ -10340,7 +10705,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="285" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
         <v>298</v>
       </c>
@@ -10382,7 +10747,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
         <v>298</v>
       </c>
@@ -10396,7 +10761,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
         <v>299</v>
       </c>
@@ -10410,7 +10775,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
         <v>299</v>
       </c>
@@ -10424,7 +10789,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="255" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
         <v>299</v>
       </c>
@@ -10438,7 +10803,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
         <v>299</v>
       </c>
@@ -10452,7 +10817,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
         <v>299</v>
       </c>
@@ -10466,7 +10831,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
         <v>299</v>
       </c>
@@ -10480,7 +10845,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
         <v>300</v>
       </c>
@@ -10494,7 +10859,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A204" s="5" t="s">
         <v>300</v>
       </c>
@@ -10508,7 +10873,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" ht="195" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
         <v>300</v>
       </c>
@@ -10522,7 +10887,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
         <v>300</v>
       </c>
@@ -10536,7 +10901,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
         <v>300</v>
       </c>
@@ -11278,7 +11643,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A260" s="5" t="s">
         <v>310</v>
       </c>
@@ -11348,7 +11713,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A265" s="5" t="s">
         <v>311</v>
       </c>
@@ -11404,7 +11769,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="5" t="s">
         <v>311</v>
       </c>
@@ -11446,7 +11811,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="5" t="s">
         <v>311</v>
       </c>
@@ -11600,7 +11965,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="5" t="s">
         <v>313</v>
       </c>
@@ -11614,7 +11979,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A284" s="5" t="s">
         <v>313</v>
       </c>
@@ -11684,7 +12049,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A289" s="5" t="s">
         <v>314</v>
       </c>
@@ -11740,7 +12105,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A293" s="5" t="s">
         <v>315</v>
       </c>
@@ -11782,7 +12147,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A296" s="5" t="s">
         <v>315</v>
       </c>
@@ -11922,7 +12287,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="5" t="s">
         <v>317</v>
       </c>
@@ -12034,7 +12399,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A314" s="5" t="s">
         <v>319</v>
       </c>
@@ -12216,7 +12581,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A327" s="5" t="s">
         <v>322</v>
       </c>
@@ -12230,7 +12595,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="5" t="s">
         <v>322</v>
       </c>
@@ -12244,7 +12609,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="5" t="s">
         <v>322</v>
       </c>
@@ -12258,7 +12623,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="5" t="s">
         <v>322</v>
       </c>
@@ -12538,7 +12903,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="350" spans="1:4" ht="270" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A350" s="5" t="s">
         <v>327</v>
       </c>
@@ -12622,7 +12987,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="356" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A356" s="5" t="s">
         <v>328</v>
       </c>
@@ -13000,7 +13365,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="383" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" s="5" t="s">
         <v>333</v>
       </c>
@@ -13028,7 +13393,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="385" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" s="5" t="s">
         <v>333</v>
       </c>
@@ -13196,7 +13561,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="397" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A397" s="5" t="s">
         <v>336</v>
       </c>
@@ -13252,7 +13617,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="401" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A401" s="5" t="s">
         <v>337</v>
       </c>
@@ -13672,7 +14037,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="431" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" s="5" t="s">
         <v>341</v>
       </c>
@@ -14022,7 +14387,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="456" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A456" s="5" t="s">
         <v>346</v>
       </c>
@@ -14876,7 +15241,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="517" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A517" s="5" t="s">
         <v>354</v>
       </c>
@@ -14904,7 +15269,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="519" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A519" s="5" t="s">
         <v>354</v>
       </c>
@@ -14918,7 +15283,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="520" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A520" s="5" t="s">
         <v>354</v>
       </c>
@@ -15184,7 +15549,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="539" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A539" s="5" t="s">
         <v>357</v>
       </c>
@@ -15632,7 +15997,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="571" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A571" s="5" t="s">
         <v>363</v>
       </c>
@@ -17130,7 +17495,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="678" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A678" s="5" t="s">
         <v>383</v>
       </c>
@@ -17200,7 +17565,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="683" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A683" s="5" t="s">
         <v>384</v>
       </c>
@@ -17886,7 +18251,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="732" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A732" s="5" t="s">
         <v>392</v>
       </c>
@@ -19762,7 +20127,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="866" spans="1:4" ht="360" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A866" s="5" t="s">
         <v>414</v>
       </c>
@@ -19888,7 +20253,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="875" spans="1:4" ht="345" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A875" s="5" t="s">
         <v>416</v>
       </c>
@@ -19944,7 +20309,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="879" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A879" s="5" t="s">
         <v>416</v>
       </c>
@@ -20112,7 +20477,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="891" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A891" s="5" t="s">
         <v>418</v>
       </c>
@@ -20140,7 +20505,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="893" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A893" s="5" t="s">
         <v>418</v>
       </c>
@@ -20308,7 +20673,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="905" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A905" s="5" t="s">
         <v>420</v>
       </c>
@@ -20378,7 +20743,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="910" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:4" ht="180" x14ac:dyDescent="0.25">
       <c r="A910" s="5" t="s">
         <v>421</v>
       </c>
@@ -20392,7 +20757,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="911" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A911" s="5" t="s">
         <v>421</v>
       </c>
@@ -20406,7 +20771,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="912" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A912" s="5" t="s">
         <v>421</v>
       </c>
@@ -20728,7 +21093,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="935" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A935" s="5" t="s">
         <v>425</v>
       </c>
@@ -20980,7 +21345,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="953" spans="1:4" ht="285" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A953" s="5" t="s">
         <v>428</v>
       </c>
@@ -21176,7 +21541,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="967" spans="1:4" ht="345" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A967" s="5" t="s">
         <v>430</v>
       </c>
@@ -21372,7 +21737,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="981" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A981" s="5" t="s">
         <v>432</v>
       </c>
@@ -21652,7 +22017,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="1001" spans="1:4" ht="405" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A1001" s="5" t="s">
         <v>435</v>
       </c>
@@ -21722,7 +22087,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="1006" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="1006" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A1006" s="5" t="s">
         <v>436</v>
       </c>
@@ -22296,7 +22661,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="1047" spans="1:4" ht="255" x14ac:dyDescent="0.25">
+    <row r="1047" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A1047" s="5" t="s">
         <v>442</v>
       </c>
@@ -22310,7 +22675,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="1048" spans="1:4" ht="300" x14ac:dyDescent="0.25">
+    <row r="1048" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A1048" s="5" t="s">
         <v>442</v>
       </c>
@@ -22562,7 +22927,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="1066" spans="1:4" ht="330" x14ac:dyDescent="0.25">
+    <row r="1066" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A1066" s="5" t="s">
         <v>445</v>
       </c>
@@ -22688,7 +23053,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="1075" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="1075" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1075" s="5" t="s">
         <v>446</v>
       </c>
@@ -22996,7 +23361,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="1097" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="1097" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A1097" s="5" t="s">
         <v>451</v>
       </c>
@@ -23080,7 +23445,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="1103" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="1103" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A1103" s="5" t="s">
         <v>452</v>
       </c>
@@ -23094,7 +23459,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="1104" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="1104" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1104" s="5" t="s">
         <v>452</v>
       </c>
@@ -23164,7 +23529,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="1109" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="1109" spans="1:4" ht="165" x14ac:dyDescent="0.25">
       <c r="A1109" s="5" t="s">
         <v>453</v>
       </c>

--- a/QualityControl/parameters.xlsx
+++ b/QualityControl/parameters.xlsx
@@ -5,21 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usama riasat\Documents\Saffron-Clones\saff-apis\QualityControl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usama riasat\Documents\s-clone\saff-apis\QualityControl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0176BD-6529-498D-A594-F8B4906CD63E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89373B66-608F-4E0E-9906-3B3E1B3C9730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
-    <sheet name="RMSpecs" sheetId="2" r:id="rId3"/>
-    <sheet name="RMSpecsItems" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId3"/>
+    <sheet name="RMSpecs" sheetId="2" r:id="rId4"/>
+    <sheet name="RMSpecsItems" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">RMSpecs!$A$1:$D$188</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">RMSpecs!$A$1:$D$188</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4930" uniqueCount="1398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4999" uniqueCount="1454">
   <si>
     <t>BP</t>
   </si>
@@ -4326,6 +4327,174 @@
   </si>
   <si>
     <t>GTIN No.</t>
+  </si>
+  <si>
+    <t>Assay (Metformin HCl)</t>
+  </si>
+  <si>
+    <t>Assay (Sitagliptin)</t>
+  </si>
+  <si>
+    <t>Assay(Elemental iron as Polymaltose Complex)</t>
+  </si>
+  <si>
+    <t>Capsule Size</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Color of Body</t>
+  </si>
+  <si>
+    <t>Color of Cap</t>
+  </si>
+  <si>
+    <t>Compressibility</t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
+  <si>
+    <t>Dissolution ( 1Hour)</t>
+  </si>
+  <si>
+    <t>Dissolution ( 2Hours)</t>
+  </si>
+  <si>
+    <t>Dissolution (6 Hours)</t>
+  </si>
+  <si>
+    <t>Dissolution (Metformin HCl)</t>
+  </si>
+  <si>
+    <t>Dissolution (Sitagliptin)</t>
+  </si>
+  <si>
+    <t>Dissolution (Test 1)</t>
+  </si>
+  <si>
+    <t>Dissolution (Test 1) 2nd hour</t>
+  </si>
+  <si>
+    <t>Dissolution(4 Hours)</t>
+  </si>
+  <si>
+    <t>Dissolution(test 1)3rd hour</t>
+  </si>
+  <si>
+    <t>Dissolution(Test 1)8th hour</t>
+  </si>
+  <si>
+    <t>Friability</t>
+  </si>
+  <si>
+    <t>Hardness</t>
+  </si>
+  <si>
+    <t>Hausner's Ratio</t>
+  </si>
+  <si>
+    <t>Label claim/Capsule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Label claim/Tab </t>
+  </si>
+  <si>
+    <t>Label claim/Tab (Lornoxicam)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Label claim/Tablet </t>
+  </si>
+  <si>
+    <t>Label claim/Tablet (Metformin HCl)</t>
+  </si>
+  <si>
+    <t>Label claim/Tablet (Sitagliptin)</t>
+  </si>
+  <si>
+    <t>Label claim/Tablet(Elemental iron as Polymaltose Complex)</t>
+  </si>
+  <si>
+    <t>Labeling</t>
+  </si>
+  <si>
+    <t>Pack Sioze</t>
+  </si>
+  <si>
+    <t>Pack Size</t>
+  </si>
+  <si>
+    <t>Tapped Density</t>
+  </si>
+  <si>
+    <t>Uniformity of  Dosage</t>
+  </si>
+  <si>
+    <t>Uniformity of dosage unit</t>
+  </si>
+  <si>
+    <t>Uniformity of mass</t>
+  </si>
+  <si>
+    <t>Volume Variation</t>
+  </si>
+  <si>
+    <t>Weight Variation</t>
+  </si>
+  <si>
+    <t>Dissolution Buffer pH 5.5 (60mins)</t>
+  </si>
+  <si>
+    <t>Dissolution Buffer pH 7.0(40min)</t>
+  </si>
+  <si>
+    <t>Dissolution Buffer Ph 7.0 (60min)</t>
+  </si>
+  <si>
+    <t>Dissolution Buffer Ph 7.0(105min)</t>
+  </si>
+  <si>
+    <t>Dissolution Buffer Ph 7.0(120min)</t>
+  </si>
+  <si>
+    <t>Disintegration Time (Shell)</t>
+  </si>
+  <si>
+    <t>Dissolution (Test 4) 2nd hour</t>
+  </si>
+  <si>
+    <t>Dissolution (Test 4) 3rd hour</t>
+  </si>
+  <si>
+    <t>Dissolution (Test 4) 8th hour</t>
+  </si>
+  <si>
+    <t>Dissolution(Acid Stage)</t>
+  </si>
+  <si>
+    <t>Dissolution(Buffer 5.5)</t>
+  </si>
+  <si>
+    <t>Dissolution(Buffer 7.0 after 40 min)</t>
+  </si>
+  <si>
+    <t>Dissolution(Buffer 7.0 after 60 min)</t>
+  </si>
+  <si>
+    <t>Dissolution(Buffer 7.0 after 105 min)</t>
+  </si>
+  <si>
+    <t>Dissolution(Buffer 7.0 after 120 min)</t>
+  </si>
+  <si>
+    <t>Filled Volume</t>
+  </si>
+  <si>
+    <t>Label claim</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -5214,7 +5383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4727FC27-3891-43C3-B859-BB9A65C97C33}">
   <dimension ref="A1:A44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -5308,12 +5477,12 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>1373</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
         <v>1374</v>
       </c>
@@ -5449,6 +5618,364 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04F8DE57-C355-4EF5-84D6-7A6BE5E2743A}">
+  <dimension ref="A1:F68"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1403</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7164B84E-807A-478E-9EFB-A01C5AB6EB46}">
   <dimension ref="A1:D181"/>
   <sheetViews>
@@ -8001,7 +8528,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20AA50B5-C189-4AC0-979B-566F5600D10D}">
   <dimension ref="A1:D1111"/>
   <sheetViews>
